--- a/Data Collection/Authors/Ueli Mäder/articles_Mäder_Jan_1.xlsx
+++ b/Data Collection/Authors/Ueli Mäder/articles_Mäder_Jan_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Ueli Mäder/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_B85624B30D0EABED8F7C99EDFA26E0B2D682FD7D" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{475FE875-F5E1-4A18-A8C2-01D739B159B8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>title</t>
   </si>
@@ -64,12 +70,264 @@
 Ja Nein Who cares WeiterDie Zeche zahlen jene, die sich angestrengt haben.
 Nur vergleicht man sich dann lieber nicht mit Israel, wenn es ums schelle Impfen geht, sondern mit Ländern mit weniger Schlagkraft und Ressourcen.</t>
   </si>
+  <si>
+    <t>Vorstoss im Grossen Rat – Gesucht: Baslerinnen und Basler ...</t>
+  </si>
+  <si>
+    <t>Basler Zeitung</t>
+  </si>
+  <si>
+    <t>... kann man sich per Fragebogen anonym einbringen, und im April ist als Abschluss eine Informationsveranstaltung mit dem Soziologen Ueli Mäder geplant.</t>
+  </si>
+  <si>
+    <t>https://www.bazonline.ch/gesucht-baslerinnen-und-basler-mit-mut-499895716501</t>
+  </si>
+  <si>
+    <t>Vorstoss im Grossen Rat – Gesucht: Baslerinnen und Basler mit Mut SVP-Fraktionschef Pascal Messerli will in Basel einen Preis für Zivilcourage einführen.
+Der Sicherheitsdirektor des Kantons Zug ist begeistert.
+Der XY-Preis, der jährlich im Beisein des deutschen Bundesinnenministers vergeben wird, hat den SVP-Fraktionschef auf einen Gedanken gebracht: Auch der Kanton Basel-Stadt soll eine Auszeichnung für Zivilcourage verleihen.
+In einem Vorstoss, der vermutlich im Februar in den Grossen Rat kommt, fordert er von der Kantonsregierung, die Idee zu prüfen.
+Und Beispiele für Auszeichnungen gibt es nicht nur im deutschen Fernsehen oder im «Beobachter» (Prix Courage), sondern etwa auch im Kanton Zug.</t>
+  </si>
+  <si>
+    <t>WhatsApp reagiert auf den Massenexodus von Nutzern</t>
+  </si>
+  <si>
+    <t>MoneyToday</t>
+  </si>
+  <si>
+    <t>Ruedi Maeder (mae) 19. Januar ... Schubumkehr: Bundespräsident Ueli Maurer gibt dem Libra-Projekt aktuell keine Chance · Bundespräsident Ueli Maurer.</t>
+  </si>
+  <si>
+    <t>https://www.moneytoday.ch/news/whatsapp-reagiert-auf-den-massenexodus-von-nutzern/</t>
+  </si>
+  <si>
+    <t>Die Messenger von Signal und Threema haben Hochkonjunktur und enormen Zulauf, WhatsApp von Facebook verliert – und reagiert.
+Die angekündigte – nach Lesart von WhatsApp missverstandene – neue Nähe in Bezug auf Daten zwischen WhatsApp, Facebook und Instagram, wird von vielen Nutzern nicht goutiert.
+Februar nicht akzeptiert, soll von den Messenger-Diensten von WhatsApp ausgeschlossen werden – so die bisherige Ankündigung.
+Die neuen Nutzungsbedingungen von WhatsApp sind von zahlreichen Journalisten und auch von Datenschutzexperten als missverständlich oder auch problematisch eingestuft worden.
+Facebook als Schwergewicht und Mutterhaus von WhatsApp und Instagram weiss aus Erfahrung, dass Nutzerinnen und Nutzer, Medien, Politik und Datenschützer heute sehr viel sensibler als auch schon auf geänderte Nutzungsbedingungen reagieren.</t>
+  </si>
+  <si>
+    <t>BAG-Chefin stoppt Story über 8,5-Zi-Wohnung</t>
+  </si>
+  <si>
+    <t>Aber wenn man im nau.ch schaut auf news/schweiz ist die Geschicht weg. Like 36. Ueli Bärlocher. 27 ...</t>
+  </si>
+  <si>
+    <t>https://insideparadeplatz.ch/2021/01/27/bag-chefin-stoppt-story-ueber-85-zi-wohnung/</t>
+  </si>
+  <si>
+    <t>Das Onlineportal Nau.ch brachte letzte Woche eine News, die im Bundesamt für Gesundheit und dem Departement des Inneren für Aufregung sorgte.
+Die oberste Verantwortliche für die Pandemiebekämpfung, die das Volk ins Homeoffice zwängt, mit Platz zum Verschwenden?
+Es ging nicht lange, da war der Artikel (respektive die Grösse der Wohnung) nicht mehr online.
+Die Software für die Anmeldungen hatte Fehler, viele Alte und Betroffene mit Impf-Terminen gingen leer aus.
+Aber wenn ein Medium über die grosse Wohnung der Chefin schreibt, dann hört der Spass auf.</t>
+  </si>
+  <si>
+    <t>«Tagesschau»-Moderatorin Wasiliki Goutziomitros erwartet zweites Kind</t>
+  </si>
+  <si>
+    <t>Blick</t>
+  </si>
+  <si>
+    <t>Ueli Christoffel. 2/7. Das Kind soll im Juli zur Welt kommen. «Tagesschau»-Lady ... Maeder, Winzenried und Co. Frauen sind bei SRF oft nur Lückenbüsserinnen.</t>
+  </si>
+  <si>
+    <t>https://www.blick.ch/people-tv/schweiz/tagesschau-moderatorin-wieder-schwanger-wasiliki-goutziomitros-erwartet-zweites-kind-id16303890.html</t>
+  </si>
+  <si>
+    <t>Wasiliki Goutziomitros gibt Anfang 2021 eine wunderschöne Nachricht bekannt: Die SRF-Frau wird zum zweiten Mal Mutter.
+Oscar Alessio 1/7 Schöne Nachrichten von Wasiliki Goutziomitros: Die Moderatorin wird zum zweiten Mal Mutter.
+6/7Instagram 7/7 Zu diesem Instagram-Post, der ihren Sohn Phadeon und Ehemann Giorgos zeigt, schrieb sie: «Das grösste Glück und die grösste Veränderung in meinem Leben ist die Tatsache, Mutter zu sein.»Man kann gratulieren.
+Wasiliki Goutziomitros (42) ist wieder schwanger.
+Das gibt die «Tagesschau»-Moderatorin im SRF-Format «Gesichter und Geschichten» bekannt.</t>
+  </si>
+  <si>
+    <t>Freihandelsabkommen – Überparteiliches Komitee sagt Ja zum Abkommen mit Indonesien</t>
+  </si>
+  <si>
+    <t>SRF</t>
+  </si>
+  <si>
+    <t>Es geht um so viel mehr als nur um Palmöl. Autor: Christoph MäderPräsident Economiesuisse. GLP-Nationalrätin Tiana Angelina Moser (ZH) ...</t>
+  </si>
+  <si>
+    <t>https://www.srf.ch/news/schweiz/freihandelsabkommen-ueberparteiliches-komitee-sagt-ja-zum-abkommen-mit-indonesien</t>
+  </si>
+  <si>
+    <t>Vertreterinnen und Vertreter aller Fraktionen ausser den Grünen plädieren zusammen mit dem Wirtschaftsdachverband Economiesuisse für ein Ja zum Freihandelsabkommen mit Indonesien.
+März stimmt die Schweizer Stimmbevölkerung erstmals über ein Freihandelsabkommen ab.
+Das Abkommen biete indonesischen Produzenten einen Anreiz, nachhaltiges Palmöl zu fördern, sagte Mitte-Nationalrätin Elisabeth Schneider-Schneiter (BL) vor den Bundeshausmedien.
+Das Abkommen enthalte verbindliche Verpflichtungen, die Indonesien bisher mit keinem anderen Handelspartner eingegangen sei.
+Das Pro-Komitee macht weiter geltend, das Abkommen erleichtere insbesondere Schweizer KMU den Zugang zum stark wachsenden indonesischen Markt.</t>
+  </si>
+  <si>
+    <t>Coronavirus: Berner Gymi-Schüler wollen zurück ins Homeschooling</t>
+  </si>
+  <si>
+    <t>Nau.ch</t>
+  </si>
+  <si>
+    <t>Avatar von Nick Mäder · Beitrag von Nick Mäder. Am 21. Januar 2021 - 15:00. Bern ... Kein Problem? - Experten widersprechen Ueli Maurer bei Staatsschulden ...</t>
+  </si>
+  <si>
+    <t>https://www.nau.ch/news/schweiz/coronavirus-berner-gymi-schuler-wollen-zuruck-ins-homeschooling-65855458</t>
+  </si>
+  <si>
+    <t>Eishockey Swiss League – EHC Kloten legt eine ...</t>
+  </si>
+  <si>
+    <t>Tages-Anzeiger</t>
+  </si>
+  <si>
+    <t>... Goalie Dominic Nyffeler, der auf dem Weg zu seinem achten Shutout in dieser Saison vieles abwehrte, auch einen Penalty von Ueli Huber nach 15 Minuten.</t>
+  </si>
+  <si>
+    <t>https://www.tagesanzeiger.ch/wieder-ein-sieg-ueber-den-hc-ajoie-249517095751</t>
+  </si>
+  <si>
+    <t>Der Goalie kam zu seinem achten Shutout der Saison – und er musste ihn hart erarbeiten.
+Vom Penalty Hubers, den er abwehrte, bis zu den Unterzahlsituationen war er spektakulär gut.
+Das Führungstor des Jungverteidigers war enorm wichtig für den Verlauf der Partie.
+Und er gewann aus dieser Aktion die Sicherheit und das Selbstvertrauen für einen starken Abend.
+Da Ajoie Heimvorteil hatte, konnte des Captains Linie nicht konsequent gegen die besten Ajoie-Leute spielen.</t>
+  </si>
+  <si>
+    <t>Lausiges Material? – Motten-Horror in der Bio-Isolation</t>
+  </si>
+  <si>
+    <t>Kommentar von Lena Mäder (lenamaeder) Mittwoch, 20. Januar 2021, 01:53 Uhr ... Kommentar von Ueli Lang (Wochenaufenthalter) Mittwoch, 20. Januar 2021 ...</t>
+  </si>
+  <si>
+    <t>https://www.srf.ch/news/schweiz/lausiges-material-motten-horror-in-der-bio-isolation</t>
+  </si>
+  <si>
+    <t>«Wie im Schlaraffenland»Nach dem Einzug vor sieben Jahren lässt die Familie die Wärmedämmung auswechseln.
+Bild 1 / 2 Legende: Es sind nicht die ausgewachsenen Motten, die Löcher in die Wolle fressen, sondern ihre Larven.
+«Richtig helfen konnte uns bis heute niemand.» Die Familie hat das Material bei einem Schweizer KMU gekauft.
+Fakt ist: Die Haftpflichtversicherung des österreichischen Händlers ist aktiv geworden und hat der Familie ein Angebot unterbreitet.
+Und es sei kein Einzelfall, sagt Frei.</t>
+  </si>
+  <si>
+    <t>UBS streicht alle Papierkörbe</t>
+  </si>
+  <si>
+    <t>Ueli Normalbüger. 16. Januar 2021 / 13:03. hahahahahahah nach 12 Jahren ... Antworten. Like 8. Werner Mäder. 15. Januar 2021 / 08:38. Gähn. Antworten.</t>
+  </si>
+  <si>
+    <t>https://insideparadeplatz.ch/2021/01/15/ubs-streicht-alle-papierkoerbe/</t>
+  </si>
+  <si>
+    <t>Die UBS spart.
+Das habe nichts mit Kosten zu tun, heisst es bei der Bank.
+Die Bank habe sich schon vor längerem entschieden, grün zu werden.
+Die UBS wolle diesbezüglich ein Leader sein.
+An der Europaallee beim Zürcher Hauptbahnhof sei das noch nicht der Fall, doch auch dort würden entsprechende Pläne gewälzt.</t>
+  </si>
+  <si>
+    <t>Finma lässt Collardi springen</t>
+  </si>
+  <si>
+    <t>Like 14. Werner Mäder. 21. Januar 2021 / 21:21. Und der zuständige Bundesrat Maurer? Schläft der auch? Antworten. Like 3. Benny Fuchs, Politik-Experte. 24.</t>
+  </si>
+  <si>
+    <t>https://insideparadeplatz.ch/2021/01/21/finma-laesst-collardi-springen/</t>
+  </si>
+  <si>
+    <t>Nun hat die Finma ein Verfahren gegen Sulser eröffnet.
+Collardi und Raitzin verliessen die Bär praktisch gleichzeitig Ende 2017.
+Hodler übernahm von Collardi, Betty Sanchez kam von Goldman Sachs zur Bär und wurde neue Lateinamerika-Chefin.
+In der Schweiz verbot die Finma der Bär-Bank vor Jahresfrist wegen Fifa und Venezuela grössere Zukäufe.
+Sicher ist: Collardi und Raitzin bildeten ein enges Gespann, wenn es darum ging, schwerreichen Südamerikanern einen Platz bei der grössten Schweizer Privatbank zu verschaffen.</t>
+  </si>
+  <si>
+    <t>Kultur-Tipps der Redaktion: Das müssen Sie gesehen haben</t>
+  </si>
+  <si>
+    <t>NZZ</t>
+  </si>
+  <si>
+    <t>Dennoch kann man weiterhin Kultur erleben – wir sagen, wie. Claudia Mäder, Andreas Breitenstein, Christian Wildhagen, Ueli Bernays 10.02.2021, 20.30 Uhr.</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/feuilleton/kultur-tipps-der-feuilleton-redaktion-das-muessen-sie-gesehen-haben-es-gibt-kultur-events-die-man-trotz-lockdown-geniessen-kann-ld.1600881</t>
+  </si>
+  <si>
+    <t>Das müssen Sie gesehen haben: Es gibt Kultur-Events, die man trotz Lockdown geniessen kann Museen, Theater, Kinos und Konzertsäle sind geschlossen.
+Die Schrecken des Eises und der Finsternis: Alfred de Quervain auf dem grönländischen Inlandeis bei der Messung des Windes, 1912.
+· Wuhan 2019, Moskau 1939: Das sind Orte und Zeiten, die sich nur scheinbar nicht reimen.
+Wiewohl smart-digital verkleidet, ist die Herrschaft Xi Jinpings kaum weniger autoritär als der Despotismus Stalins, der das Handwerk des Tötens analog zur Blüte brachte.
+Was beide Systeme verbindet, sind eine Paranoia der totalen Kontrolle und die Angst davor, dass etwas fundamental schiefgehen könnte.</t>
+  </si>
+  <si>
+    <t>Lucerne Festival: Riccardo Chailly verlängert seinen Vertrag</t>
+  </si>
+  <si>
+    <t>Claudia Mäder, Andreas Breitenstein, Christian Wildhagen, Ueli Bernays 10.02.2021. Einzug der Gäste ins Musik-Ufo: das National Centre for the Performing ...</t>
+  </si>
+  <si>
+    <t>https://www.nzz.ch/feuilleton/kontinuitaet-am-lucerne-festival-riccardo-chailly-verlaengert-seinen-vertrag-ld.1601315</t>
+  </si>
+  <si>
+    <t>Kontinuität am Lucerne Festival: Riccardo Chailly verlängert seinen Vertrag Der berühmte italienische Dirigent wird sein Engagement als künstlerischer Leiter des Lucerne Festival Orchestra bis Ende 2026 fortsetzen.
+· Riccardo Chailly wird das Lucerne Festival Orchestra (LFO) bis Ende 2026 als Chefdirigent leiten.
+Der Intendant des Lucerne Festival, Michael Haefliger, begrüsste die Fortsetzung von Chaillys Engagement.
+Von 1988 bis 2004 leitete er als Chefdirigent das Royal Concertgebouworkest und von 2005 bis 2016 als Gewandhauskapellmeister das Gewandhausor­chester Leipzig.
+Am Lucerne Festival war Riccardo Chailly als Chefdirigent des Royal Concertgebouworkest Amsterdam und des Gewandhausorchesters Leipzig seit 1988 konti­nuierlich zu Gast.</t>
+  </si>
+  <si>
+    <t>Wirtschaftsverbände sind so geschwächt wie nie zuvor</t>
+  </si>
+  <si>
+    <t>Handelszeitung</t>
+  </si>
+  <si>
+    <t>Mäder sieht bei beiden Economiesuisse-Pfeilern Anpassungsbedarf – das heisst ... und Verwaltungsrat Ueli Dietiker, der frühere Bankenprofessor und Gründer ...</t>
+  </si>
+  <si>
+    <t>https://www.handelszeitung.ch/bilanz/tumult-an-bord-von-economiesuisse-und-co-das-sind-die-grunde</t>
+  </si>
+  <si>
+    <t>Immerhin 150 Jahre.
+Ein Jubiläum, das es zu feiern gilt und das auf den am 12.
+März 1870 in Bern besiegelten Zusammenschluss der kantonalen Handelskammern zum Schweizerischen Handels- und Industrieverein zurückgeht.
+Alles war schon organisiert für das Economiesuisse-Jubelfest: Wirtschaftsminister Guy Parmelin hatte zugesagt, versprochen wurden auch «Live-Musik», «kulinarische Leckerbissen» und natürlich das obligate Podium mit dem Allerweltstitel «Wirtschaftsverbände – gestern, heute und morgen».</t>
+  </si>
+  <si>
+    <t>Index of /kultur</t>
+  </si>
+  <si>
+    <t>80-minuten-147-rapper-1-city-1-song/, 2020-10-27 12:45, -. [DIR], 82-viertausender-an-einem-abend-bergsteiger-ueli-steck-kommt-mit-starker-show-nach-basel ...</t>
+  </si>
+  <si>
+    <t>https://www.tageswoche.ch/kultur/?C=M;O=A</t>
+  </si>
+  <si>
+    <t>In der Arena zum Freihandelsabkommen mit Indonesien streiten die Linken</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>Karin Keller-Sutter faxt in der E-ID-«Arena» Programmier-Nerd Mäder die Leviten ... «Ueli, es wird nicht wahrer, wenn du schreist» – alle gegen den SVP-Polteri ...</t>
+  </si>
+  <si>
+    <t>https://www.watson.ch/schweiz/wirtschaft/320402014-in-der-arena-zum-freihandelsabkommen-mit-indonesien-streiten-die-linken</t>
+  </si>
+  <si>
+    <t>SchweizWirtschaftIn der Arena zum Freihandelsabkommen mit Indonesien streiten die Linkenscreenshot: srfAnalysePalmöl-«Arena» ist, wenn SP-Molina in die Mitte rückt und damit Juso-Jansen ärgertBeim Freihandelsabkommen mit Indonesien sind die Fronten unklar.
+Obwohl die Linken im Grunde dasselbe wollen, gerät sich die Sozialdemokratie mit ihrer Jungpartei in der «Abstimmungsarena» in die Haare.
+Nicht nur beim Verhüllungsverbot scheiden sich die Geister innerhalb der Linken, auch beim Freihandelsabkommen mit Indonesien werden sich SP, Juso, die Grünen und verschiedene Umweltorganisationen nicht einig.
+Das heisst: Das Freihandelsabkommen mit Indonesien ist so oder so bereits beschlossene Sache.
+Gemäss Seco verpflichtet sich Indonesien im Abkommen, «die Abholzung, die Entwässerung von Torfmooren sowie Brandrodungen zu stoppen und die Rechte der indigenen Bevölkerung und der Arbeitnehmenden zu respektieren».</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,24 +390,36 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +493,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +545,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,14 +738,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -491,9 +799,345 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44215</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44222</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44226</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44215</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>44211</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44217</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44237</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44237</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44240</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
